--- a/testing/data_test/Times_ecoinvent2.xlsx
+++ b/testing/data_test/Times_ecoinvent2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1361185\PycharmProjects\ENBIOS4TIMES\testing\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B550E-13DB-4BF5-A567-1D2F47A778C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D1D1C-33C4-4D0D-9739-5511DF8011CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,10 +847,6 @@
     <t>EPLT: Solar Photovoltaic Self-consumption. Residential</t>
   </si>
   <si>
-    <t>('ei36_cutoff_IMAGE_SSP2_SS', '206c2e2c30f45d47ea2e9a3701f8ecc5
-')</t>
-  </si>
-  <si>
     <t>EUPVSOLOFFGRID101</t>
   </si>
   <si>
@@ -1131,6 +1127,9 @@
   </si>
   <si>
     <t>('ei36_cutoff_IMAGE_SSP2_SS', '1d7a3591e7a3d033a25e0eaf699bb50bf')</t>
+  </si>
+  <si>
+    <t>('ei36_cutoff_IMAGE_SSP2_SS', '206c2e2c30f45d47ea2e9a3701f8ecc5')</t>
   </si>
 </sst>
 </file>
@@ -1596,16 +1595,16 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1891,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D83" workbookViewId="0">
-      <selection activeCell="M117" sqref="M117"/>
+    <sheetView tabSelected="1" topLeftCell="D106" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6045,7 +6044,7 @@
         <v>255</v>
       </c>
       <c r="L112" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -6162,7 +6161,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="91" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" s="91" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="89" t="s">
         <v>267</v>
       </c>
@@ -6197,18 +6196,18 @@
         <v>255</v>
       </c>
       <c r="L116" s="83" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D117" s="46" t="s">
         <v>17</v>
@@ -6240,13 +6239,13 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D118" s="46" t="s">
         <v>17</v>
@@ -6278,13 +6277,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D119" s="46" t="s">
         <v>17</v>
@@ -6316,13 +6315,13 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D120" s="32" t="s">
         <v>17</v>
@@ -6354,13 +6353,13 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D121" s="50" t="s">
         <v>17</v>
@@ -6392,13 +6391,13 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D122" s="50" t="s">
         <v>17</v>
@@ -6430,13 +6429,13 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D123" s="50" t="s">
         <v>17</v>
@@ -6468,13 +6467,13 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D124" s="50" t="s">
         <v>17</v>
@@ -6506,13 +6505,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D125" s="50" t="s">
         <v>17</v>
@@ -6542,13 +6541,13 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D126" s="50" t="s">
         <v>17</v>
@@ -6578,13 +6577,13 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D127" s="50" t="s">
         <v>17</v>
@@ -6614,13 +6613,13 @@
     </row>
     <row r="128" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D128" s="53" t="s">
         <v>17</v>
@@ -6635,7 +6634,7 @@
         <v>19</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I128" s="15" t="s">
         <v>21</v>
@@ -6645,24 +6644,24 @@
       </c>
       <c r="K128" s="15"/>
       <c r="L128" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="M128" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="M128" s="56" t="s">
+      <c r="N128" s="56" t="s">
         <v>296</v>
-      </c>
-      <c r="N128" s="56" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D129" s="53" t="s">
         <v>17</v>
@@ -6677,7 +6676,7 @@
         <v>19</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I129" s="15" t="s">
         <v>21</v>
@@ -6687,24 +6686,24 @@
       </c>
       <c r="K129" s="15"/>
       <c r="L129" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M129" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N129" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D130" s="53" t="s">
         <v>17</v>
@@ -6719,7 +6718,7 @@
         <v>19</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I130" s="15" t="s">
         <v>21</v>
@@ -6729,24 +6728,24 @@
       </c>
       <c r="K130" s="15"/>
       <c r="L130" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M130" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N130" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C131" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D131" s="53" t="s">
         <v>17</v>
@@ -6761,7 +6760,7 @@
         <v>19</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I131" s="21" t="s">
         <v>21</v>
@@ -6773,21 +6772,21 @@
         <v>44</v>
       </c>
       <c r="L131" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M131" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C132" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D132" s="53" t="s">
         <v>17</v>
@@ -6802,7 +6801,7 @@
         <v>19</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I132" s="21" t="s">
         <v>21</v>
@@ -6814,21 +6813,21 @@
         <v>44</v>
       </c>
       <c r="L132" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M132" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C133" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D133" s="55" t="s">
         <v>17</v>
@@ -6843,7 +6842,7 @@
         <v>19</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I133" s="15" t="s">
         <v>21</v>
@@ -6853,24 +6852,24 @@
       </c>
       <c r="K133" s="15"/>
       <c r="L133" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="M133" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="M133" s="57" t="s">
-        <v>313</v>
-      </c>
       <c r="N133" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D134" s="53" t="s">
         <v>17</v>
@@ -6885,7 +6884,7 @@
         <v>19</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I134" s="21" t="s">
         <v>21</v>
@@ -6895,21 +6894,21 @@
       </c>
       <c r="K134" s="21"/>
       <c r="L134" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="M134" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="M134" s="59" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B135" s="76" t="s">
         <v>15</v>
       </c>
       <c r="C135" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D135" s="75" t="s">
         <v>17</v>
@@ -6924,7 +6923,7 @@
         <v>19</v>
       </c>
       <c r="H135" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I135" s="75" t="s">
         <v>21</v>
@@ -6941,13 +6940,13 @@
     </row>
     <row r="136" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C136" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D136" s="60" t="s">
         <v>17</v>
@@ -6962,7 +6961,7 @@
         <v>19</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I136" s="21" t="s">
         <v>21</v>
@@ -6974,18 +6973,18 @@
         <v>44</v>
       </c>
       <c r="L136" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B137" s="76" t="s">
         <v>15</v>
       </c>
       <c r="C137" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D137" s="75" t="s">
         <v>17</v>
@@ -7000,7 +6999,7 @@
         <v>19</v>
       </c>
       <c r="H137" s="75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I137" s="75" t="s">
         <v>21</v>
@@ -7012,7 +7011,7 @@
         <v>44</v>
       </c>
       <c r="L137" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M137" s="78">
         <v>0.4100948959589249</v>
@@ -7023,13 +7022,13 @@
     </row>
     <row r="138" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C138" s="60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D138" s="60" t="s">
         <v>17</v>
@@ -7044,7 +7043,7 @@
         <v>19</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I138" s="21" t="s">
         <v>21</v>
@@ -7056,7 +7055,7 @@
         <v>44</v>
       </c>
       <c r="L138" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M138" s="18">
         <v>0.4100948959589249</v>
@@ -7064,13 +7063,13 @@
     </row>
     <row r="139" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C139" s="60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D139" s="60" t="s">
         <v>17</v>
@@ -7085,7 +7084,7 @@
         <v>19</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I139" s="21" t="s">
         <v>21</v>
@@ -7097,7 +7096,7 @@
         <v>44</v>
       </c>
       <c r="L139" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M139" s="18">
         <v>0.62275456411117125</v>
@@ -7105,13 +7104,13 @@
     </row>
     <row r="140" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C140" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D140" s="60" t="s">
         <v>17</v>
@@ -7126,7 +7125,7 @@
         <v>19</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I140" s="21" t="s">
         <v>21</v>
@@ -7138,7 +7137,7 @@
         <v>44</v>
       </c>
       <c r="L140" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M140" s="18">
         <v>0.5729341989822776</v>
@@ -7146,13 +7145,13 @@
     </row>
     <row r="141" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C141" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D141" s="60" t="s">
         <v>17</v>
@@ -7167,7 +7166,7 @@
         <v>19</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I141" s="21" t="s">
         <v>21</v>
@@ -7179,7 +7178,7 @@
         <v>44</v>
       </c>
       <c r="L141" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M141" s="18">
         <v>0.52084927180207052</v>
@@ -7187,13 +7186,13 @@
     </row>
     <row r="142" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C142" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D142" s="60" t="s">
         <v>17</v>
@@ -7208,7 +7207,7 @@
         <v>19</v>
       </c>
       <c r="H142" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I142" s="21" t="s">
         <v>21</v>
@@ -7220,7 +7219,7 @@
         <v>44</v>
       </c>
       <c r="L142" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M142" s="18">
         <v>0.47744516581856467</v>
@@ -7228,13 +7227,13 @@
     </row>
     <row r="143" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C143" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D143" s="60" t="s">
         <v>17</v>
@@ -7249,7 +7248,7 @@
         <v>19</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I143" s="21" t="s">
         <v>21</v>
@@ -7261,18 +7260,18 @@
         <v>44</v>
       </c>
       <c r="L143" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C144" s="60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D144" s="60" t="s">
         <v>17</v>
@@ -7287,7 +7286,7 @@
         <v>19</v>
       </c>
       <c r="H144" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I144" s="21" t="s">
         <v>21</v>
@@ -7299,7 +7298,7 @@
         <v>44</v>
       </c>
       <c r="L144" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M144" s="18">
         <v>0.62275456411117125</v>
@@ -7307,13 +7306,13 @@
     </row>
     <row r="145" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C145" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D145" s="60" t="s">
         <v>17</v>
@@ -7328,7 +7327,7 @@
         <v>19</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I145" s="21" t="s">
         <v>21</v>
@@ -7340,7 +7339,7 @@
         <v>44</v>
       </c>
       <c r="L145" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M145" s="18">
         <v>0.52084927180207052</v>
@@ -7348,13 +7347,13 @@
     </row>
     <row r="146" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C146" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D146" s="60" t="s">
         <v>17</v>
@@ -7369,7 +7368,7 @@
         <v>19</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I146" s="21" t="s">
         <v>21</v>
@@ -7381,7 +7380,7 @@
         <v>44</v>
       </c>
       <c r="L146" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M146" s="18">
         <v>0.47744516581856467</v>
@@ -7412,30 +7411,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>350</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="68"/>
       <c r="C2" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>354</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -7443,10 +7442,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12354,7 +12353,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -12386,10 +12385,10 @@
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
+        <v>357</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
       <c r="D2" s="64"/>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -12418,10 +12417,10 @@
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="74" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+        <v>358</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="64"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
@@ -12450,10 +12449,10 @@
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
+        <v>359</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="64"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
@@ -12482,10 +12481,10 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="74" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
+        <v>360</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="64"/>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
@@ -12514,10 +12513,10 @@
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
+        <v>361</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="64"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
@@ -12545,8 +12544,8 @@
       <c r="AB6" s="66"/>
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="64"/>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
@@ -12574,8 +12573,8 @@
       <c r="AB7" s="66"/>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="64"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -12603,8 +12602,8 @@
       <c r="AB8" s="66"/>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="64"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
@@ -12632,8 +12631,8 @@
       <c r="AB9" s="66"/>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="64"/>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -12661,8 +12660,8 @@
       <c r="AB10" s="66"/>
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="64"/>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -12690,8 +12689,8 @@
       <c r="AB11" s="66"/>
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="64"/>
       <c r="E12" s="66"/>
       <c r="F12" s="66"/>
@@ -12719,8 +12718,8 @@
       <c r="AB12" s="66"/>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="64"/>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
@@ -12749,8 +12748,8 @@
     </row>
     <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="64"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="64"/>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
@@ -12779,8 +12778,8 @@
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="64"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="64"/>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
@@ -12809,8 +12808,8 @@
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="64"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="64"/>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
@@ -12839,8 +12838,8 @@
     </row>
     <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="64"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="64"/>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
@@ -12869,8 +12868,8 @@
     </row>
     <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="64"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="64"/>
       <c r="E18" s="66"/>
       <c r="F18" s="66"/>
@@ -12899,8 +12898,8 @@
     </row>
     <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="64"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="64"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -12929,10 +12928,10 @@
     </row>
     <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="64"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
@@ -12959,10 +12958,10 @@
     </row>
     <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="64"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
@@ -12989,10 +12988,10 @@
     </row>
     <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="64"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="66"/>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
@@ -13019,10 +13018,10 @@
     </row>
     <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="64"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
@@ -42869,12 +42868,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -42887,14 +42888,12 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
